--- a/public/static/建筑物、工程受损-房屋情况统计表.xlsx
+++ b/public/static/建筑物、工程受损-房屋情况统计表.xlsx
@@ -1,53 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smile\Desktop\雅安项目\20241007雅安项目导入表 上传样板\表3建筑物、工程受损：XX地震数据信息统计表（截至年月日时）\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6A002-07DA-4E49-8978-FF279F0944C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="房屋情况" sheetId="1" r:id="rId1"/>
     <sheet name="字段填写说明表" sheetId="2" r:id="rId2"/>
     <sheet name="雅安市县区列表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
+    <t>建筑物、工程受损-房屋情况统计表</t>
+  </si>
+  <si>
+    <t>震区（县/区）</t>
+  </si>
+  <si>
+    <t>统计截止时间</t>
+  </si>
+  <si>
+    <t>目前受损</t>
+  </si>
+  <si>
+    <t>目前禁用</t>
+  </si>
+  <si>
+    <t>目前限用</t>
+  </si>
+  <si>
+    <t>目前可用</t>
+  </si>
+  <si>
+    <t>填写单位：安全评估组（市住房和城乡建设局）</t>
+  </si>
+  <si>
+    <t>说明：1.各项内容由各工作组负责填报，牵头单位协调相关成员单位整理后填写，县（区）抗震救灾指挥部协助。2.房屋受损情况，城镇住房统计栋数，农村住房统计户数，城镇X栋、农村X户。3.各字段填写说明见下方"字段填写说明表"。</t>
+  </si>
+  <si>
     <t>房屋情况</t>
   </si>
   <si>
-    <t>震区（县/区）</t>
-  </si>
-  <si>
-    <t>统计截止时间</t>
-  </si>
-  <si>
-    <t>目前受损</t>
-  </si>
-  <si>
-    <t>目前禁用</t>
-  </si>
-  <si>
-    <t>目前限用</t>
-  </si>
-  <si>
-    <t>目前可用</t>
-  </si>
-  <si>
-    <t>填写单位：安全评估组（市住房和城乡建设局）</t>
-  </si>
-  <si>
     <t>上报数据所属区县名称，可通过下拉框选择</t>
   </si>
   <si>
@@ -91,98 +104,228 @@
   </si>
   <si>
     <t>宝兴县</t>
-  </si>
-  <si>
-    <t>说明：1.各项内容由各工作组负责填报，牵头单位协调相关成员单位整理后填写，县（区）抗震救灾指挥部协助。2.房屋受损情况，城镇住房统计栋数，农村住房统计户数，城镇X栋、农村X户。3.各字段填写说明见下方"字段填写说明表"。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑物、工程受损-房屋情况统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,11 +335,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -205,8 +350,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,83 +548,363 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -387,26 +986,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -439,23 +1021,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,129 +1162,108 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31615780-6171-4C63-BCBC-D2A47D274029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.4609375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.4583333333333" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="31.3046875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.61328125" customWidth="1"/>
+    <col min="1" max="1" width="31.3083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="26.4" customHeight="1" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:2">
+      <c r="B12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>雅安市县区列表!$A$2:$A$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>雅安市县区列表!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF0C24F-CA5C-42C2-992C-37FD1D361597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -729,135 +1273,137 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14" customHeight="1" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.3046875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.3046875" style="11" customWidth="1"/>
-    <col min="4" max="5" width="16" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.3046875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.6916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3083333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4EAE92-3508-4FE7-AE62-655870125534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/static/建筑物、工程受损-房屋情况统计表.xlsx
+++ b/public/static/建筑物、工程受损-房屋情况统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="房屋情况" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>建筑物、工程受损-房屋情况统计表</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>雅安市县区列表</t>
+  </si>
+  <si>
+    <t>当前时间</t>
   </si>
   <si>
     <t>雨城区</t>
@@ -117,7 +120,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +140,14 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -525,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -545,6 +556,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,197 +677,209 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1172,8 +1210,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.4583333333333" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
@@ -1183,68 +1221,68 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+    <row r="3" s="15" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="26.4" customHeight="1" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="11" customHeight="1" spans="2:2">
       <c r="B11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="17"/>
+      <c r="B12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1252,9 +1290,12 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>雅安市县区列表!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>雅安市县区列表!$B$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,53 +1323,53 @@
     <col min="6" max="6" width="16.3083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:6">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="10" customFormat="1" ht="42" customHeight="1" spans="1:6">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1346,61 +1387,76 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.1" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="B2" s="5">
+        <f ca="1">NOW()</f>
+        <v>45604.8103240741</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
